--- a/data files/Purchase Order/smith medical.xlsx
+++ b/data files/Purchase Order/smith medical.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28129"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0285BDF-DCE5-496D-B8A2-B501DDEF5994}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="2688" yWindow="2688" windowWidth="17304" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="MASTER" sheetId="1" r:id="rId1"/>
@@ -16,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="43">
   <si>
     <t>To,</t>
   </si>
@@ -133,13 +134,25 @@
   </si>
   <si>
     <t>12/10/2021</t>
+  </si>
+  <si>
+    <t>SI.</t>
+  </si>
+  <si>
+    <t>Item Name</t>
+  </si>
+  <si>
+    <t>Unit</t>
+  </si>
+  <si>
+    <t>Qty.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="14">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="15" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -233,13 +246,24 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="3">
@@ -280,7 +304,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -301,11 +325,11 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="1" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="1" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -356,45 +380,59 @@
     <xf numFmtId="1" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="5" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="5" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="1" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="1" fontId="1" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -432,7 +470,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -466,6 +504,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -500,9 +539,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -675,25 +715,25 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H59"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="6.5703125" customWidth="1"/>
-    <col min="2" max="2" width="51.140625" customWidth="1"/>
-    <col min="3" max="3" width="15.42578125" customWidth="1"/>
-    <col min="4" max="4" width="8.42578125" customWidth="1"/>
-    <col min="5" max="5" width="10.42578125" style="20" customWidth="1"/>
-    <col min="6" max="6" width="5.7109375" customWidth="1"/>
+    <col min="1" max="1" width="6.5546875" customWidth="1"/>
+    <col min="2" max="2" width="51.109375" customWidth="1"/>
+    <col min="3" max="3" width="15.44140625" customWidth="1"/>
+    <col min="4" max="4" width="8.44140625" customWidth="1"/>
+    <col min="5" max="5" width="10.44140625" style="20" customWidth="1"/>
+    <col min="6" max="6" width="5.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="15.75">
-      <c r="A1" s="42" t="s">
+    <row r="1" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A1" s="41" t="s">
         <v>38</v>
       </c>
       <c r="B1" s="1"/>
@@ -701,14 +741,14 @@
       <c r="D1" s="1"/>
       <c r="E1" s="16"/>
     </row>
-    <row r="2" spans="1:6" ht="18.75">
+    <row r="2" spans="1:7" ht="18" x14ac:dyDescent="0.35">
       <c r="A2" s="1"/>
       <c r="B2" s="1"/>
       <c r="C2" s="2"/>
       <c r="D2" s="1"/>
       <c r="E2" s="17"/>
     </row>
-    <row r="3" spans="1:6" ht="15.75">
+    <row r="3" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
         <v>0</v>
       </c>
@@ -717,7 +757,7 @@
       <c r="D3" s="4"/>
       <c r="E3" s="7"/>
     </row>
-    <row r="4" spans="1:6" ht="15.75">
+    <row r="4" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A4" s="4" t="s">
         <v>20</v>
       </c>
@@ -726,7 +766,7 @@
       <c r="D4" s="4"/>
       <c r="E4" s="7"/>
     </row>
-    <row r="5" spans="1:6" ht="15.75">
+    <row r="5" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A5" s="4" t="s">
         <v>21</v>
       </c>
@@ -735,14 +775,14 @@
       <c r="D5" s="4"/>
       <c r="E5" s="7"/>
     </row>
-    <row r="6" spans="1:6" ht="15.75">
+    <row r="6" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A6" s="4"/>
       <c r="B6" s="4"/>
       <c r="C6" s="4"/>
       <c r="D6" s="4"/>
       <c r="E6" s="7"/>
     </row>
-    <row r="7" spans="1:6" ht="15.75">
+    <row r="7" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A7" s="4" t="s">
         <v>1</v>
       </c>
@@ -751,7 +791,7 @@
       <c r="D7" s="4"/>
       <c r="E7" s="18"/>
     </row>
-    <row r="8" spans="1:6" ht="15.75">
+    <row r="8" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A8" s="4" t="s">
         <v>2</v>
       </c>
@@ -760,27 +800,36 @@
       <c r="D8" s="4"/>
       <c r="E8" s="19"/>
     </row>
-    <row r="9" spans="1:6" ht="15.75">
+    <row r="9" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A9" s="21"/>
       <c r="B9" s="21"/>
-      <c r="C9" s="22" t="s">
-        <v>3</v>
-      </c>
-      <c r="D9" s="22" t="s">
-        <v>4</v>
-      </c>
+      <c r="C9" s="22"/>
+      <c r="D9" s="22"/>
       <c r="E9" s="23"/>
       <c r="F9" s="24"/>
     </row>
-    <row r="10" spans="1:6" ht="15.75">
-      <c r="A10" s="21"/>
-      <c r="B10" s="21"/>
-      <c r="C10" s="21"/>
-      <c r="D10" s="21"/>
-      <c r="E10" s="23"/>
-      <c r="F10" s="24"/>
-    </row>
-    <row r="11" spans="1:6" ht="15.75">
+    <row r="10" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="42" t="s">
+        <v>39</v>
+      </c>
+      <c r="B10" s="43" t="s">
+        <v>40</v>
+      </c>
+      <c r="C10" s="44" t="s">
+        <v>3</v>
+      </c>
+      <c r="D10" s="43" t="s">
+        <v>4</v>
+      </c>
+      <c r="E10" s="43" t="s">
+        <v>42</v>
+      </c>
+      <c r="F10" s="44" t="s">
+        <v>41</v>
+      </c>
+      <c r="G10" s="44"/>
+    </row>
+    <row r="11" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A11" s="25">
         <v>1</v>
       </c>
@@ -798,7 +847,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="15.75">
+    <row r="12" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A12" s="25">
         <v>2</v>
       </c>
@@ -816,7 +865,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="15.75">
+    <row r="13" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A13" s="25">
         <v>3</v>
       </c>
@@ -834,7 +883,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="15.75">
+    <row r="14" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A14" s="25">
         <v>4</v>
       </c>
@@ -852,7 +901,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="15.75">
+    <row r="15" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A15" s="25">
         <v>5</v>
       </c>
@@ -870,7 +919,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="15.75">
+    <row r="16" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A16" s="25">
         <v>6</v>
       </c>
@@ -888,7 +937,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="17" spans="1:8" ht="15.75">
+    <row r="17" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A17" s="25">
         <v>7</v>
       </c>
@@ -906,7 +955,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="18" spans="1:8" ht="15.75">
+    <row r="18" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A18" s="25">
         <v>8</v>
       </c>
@@ -924,7 +973,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="19" spans="1:8" ht="15.75">
+    <row r="19" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A19" s="25"/>
       <c r="B19" s="26"/>
       <c r="C19" s="27"/>
@@ -932,7 +981,7 @@
       <c r="E19" s="29"/>
       <c r="F19" s="30"/>
     </row>
-    <row r="20" spans="1:8" ht="15.75">
+    <row r="20" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A20" s="25">
         <v>9</v>
       </c>
@@ -950,7 +999,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="21" spans="1:8" ht="15.75">
+    <row r="21" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A21" s="25">
         <v>10</v>
       </c>
@@ -968,7 +1017,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="22" spans="1:8" ht="15.75">
+    <row r="22" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A22" s="25">
         <v>11</v>
       </c>
@@ -986,7 +1035,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="23" spans="1:8" ht="15.75">
+    <row r="23" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A23" s="25">
         <v>12</v>
       </c>
@@ -1006,7 +1055,7 @@
       <c r="G23" s="9"/>
       <c r="H23" s="8"/>
     </row>
-    <row r="24" spans="1:8" ht="15.75">
+    <row r="24" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A24" s="25">
         <v>13</v>
       </c>
@@ -1026,7 +1075,7 @@
       <c r="G24" s="9"/>
       <c r="H24" s="8"/>
     </row>
-    <row r="25" spans="1:8" ht="15.75">
+    <row r="25" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A25" s="25"/>
       <c r="B25" s="26"/>
       <c r="C25" s="27"/>
@@ -1036,7 +1085,7 @@
       <c r="G25" s="9"/>
       <c r="H25" s="8"/>
     </row>
-    <row r="26" spans="1:8" ht="15.75">
+    <row r="26" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A26" s="25">
         <v>14</v>
       </c>
@@ -1054,7 +1103,7 @@
       <c r="G26" s="9"/>
       <c r="H26" s="8"/>
     </row>
-    <row r="27" spans="1:8" ht="15.75">
+    <row r="27" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A27" s="25">
         <v>15</v>
       </c>
@@ -1072,7 +1121,7 @@
       <c r="G27" s="9"/>
       <c r="H27" s="8"/>
     </row>
-    <row r="28" spans="1:8" ht="15.75">
+    <row r="28" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A28" s="25">
         <v>16</v>
       </c>
@@ -1090,7 +1139,7 @@
       <c r="G28" s="9"/>
       <c r="H28" s="8"/>
     </row>
-    <row r="29" spans="1:8" ht="15.75">
+    <row r="29" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A29" s="25">
         <v>17</v>
       </c>
@@ -1108,7 +1157,7 @@
       <c r="G29" s="9"/>
       <c r="H29" s="8"/>
     </row>
-    <row r="30" spans="1:8" ht="15.75">
+    <row r="30" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A30" s="25">
         <v>18</v>
       </c>
@@ -1122,7 +1171,7 @@
       <c r="G30" s="9"/>
       <c r="H30" s="8"/>
     </row>
-    <row r="31" spans="1:8" ht="15.75">
+    <row r="31" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A31" s="25"/>
       <c r="B31" s="26" t="s">
         <v>28</v>
@@ -1138,7 +1187,7 @@
       <c r="G31" s="9"/>
       <c r="H31" s="8"/>
     </row>
-    <row r="32" spans="1:8" ht="15.75">
+    <row r="32" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A32" s="25"/>
       <c r="B32" s="26"/>
       <c r="C32" s="32"/>
@@ -1148,7 +1197,7 @@
       <c r="G32" s="9"/>
       <c r="H32" s="8"/>
     </row>
-    <row r="33" spans="1:8" ht="15.75">
+    <row r="33" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A33" s="25">
         <v>19</v>
       </c>
@@ -1168,7 +1217,7 @@
       <c r="G33" s="9"/>
       <c r="H33" s="8"/>
     </row>
-    <row r="34" spans="1:8" ht="15.75">
+    <row r="34" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A34" s="25">
         <v>20</v>
       </c>
@@ -1187,7 +1236,7 @@
       </c>
       <c r="G34" s="9"/>
     </row>
-    <row r="35" spans="1:8" ht="15.75">
+    <row r="35" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A35" s="25">
         <v>21</v>
       </c>
@@ -1207,7 +1256,7 @@
       <c r="G35" s="9"/>
       <c r="H35" s="8"/>
     </row>
-    <row r="36" spans="1:8" ht="15.75">
+    <row r="36" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A36" s="25">
         <v>22</v>
       </c>
@@ -1223,7 +1272,7 @@
       <c r="G36" s="9"/>
       <c r="H36" s="8"/>
     </row>
-    <row r="37" spans="1:8" ht="15.75">
+    <row r="37" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A37" s="25"/>
       <c r="B37" s="26"/>
       <c r="C37" s="27"/>
@@ -1233,7 +1282,7 @@
       <c r="G37" s="9"/>
       <c r="H37" s="8"/>
     </row>
-    <row r="38" spans="1:8" ht="15.75">
+    <row r="38" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A38" s="34">
         <v>23</v>
       </c>
@@ -1251,7 +1300,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="39" spans="1:8" ht="15.75">
+    <row r="39" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A39" s="34">
         <v>24</v>
       </c>
@@ -1269,7 +1318,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="40" spans="1:8" ht="15.75">
+    <row r="40" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A40" s="34">
         <v>25</v>
       </c>
@@ -1287,7 +1336,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="41" spans="1:8" ht="15.75">
+    <row r="41" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A41" s="34">
         <v>26</v>
       </c>
@@ -1297,7 +1346,7 @@
       <c r="C41" s="27" t="s">
         <v>32</v>
       </c>
-      <c r="D41" s="41" t="s">
+      <c r="D41" s="40" t="s">
         <v>37</v>
       </c>
       <c r="E41" s="29"/>
@@ -1305,13 +1354,13 @@
         <v>7</v>
       </c>
     </row>
-    <row r="42" spans="1:8" ht="15.75">
+    <row r="42" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A42" s="6"/>
       <c r="B42" s="8"/>
       <c r="C42" s="11"/>
       <c r="E42" s="29"/>
     </row>
-    <row r="43" spans="1:8" ht="15.75">
+    <row r="43" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A43" s="34">
         <v>26</v>
       </c>
@@ -1329,7 +1378,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="44" spans="1:8" ht="15.75">
+    <row r="44" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A44" s="34">
         <v>27</v>
       </c>
@@ -1347,7 +1396,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="45" spans="1:8" ht="15.75">
+    <row r="45" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A45" s="34">
         <v>28</v>
       </c>
@@ -1365,7 +1414,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="46" spans="1:8" ht="15.75">
+    <row r="46" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A46" s="34">
         <v>29</v>
       </c>
@@ -1383,15 +1432,15 @@
         <v>7</v>
       </c>
     </row>
-    <row r="47" spans="1:8" ht="15.75">
-      <c r="A47" s="36"/>
+    <row r="47" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A47" s="7"/>
       <c r="B47" s="8"/>
-      <c r="C47" s="37"/>
-      <c r="D47" s="39"/>
-      <c r="E47" s="40"/>
-      <c r="F47" s="38"/>
-    </row>
-    <row r="48" spans="1:8" ht="15.75">
+      <c r="C47" s="36"/>
+      <c r="D47" s="38"/>
+      <c r="E47" s="39"/>
+      <c r="F47" s="37"/>
+    </row>
+    <row r="48" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A48" s="8" t="s">
         <v>16</v>
       </c>
@@ -1400,28 +1449,28 @@
       <c r="D48" s="6"/>
       <c r="E48" s="9"/>
     </row>
-    <row r="49" spans="1:5">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A49" s="13"/>
     </row>
-    <row r="55" spans="1:5" ht="15.75">
+    <row r="55" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="D55" s="12"/>
       <c r="E55" s="9"/>
     </row>
-    <row r="56" spans="1:5" ht="15.75">
+    <row r="56" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="D56" s="14"/>
       <c r="E56" s="9"/>
     </row>
-    <row r="57" spans="1:5" ht="15.75">
+    <row r="57" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="C57" s="15"/>
       <c r="D57" s="14"/>
       <c r="E57" s="9"/>
     </row>
-    <row r="58" spans="1:5" ht="15.75">
+    <row r="58" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="C58" s="15"/>
       <c r="D58" s="14"/>
       <c r="E58" s="9"/>
     </row>
-    <row r="59" spans="1:5" ht="15.75">
+    <row r="59" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="C59" s="4"/>
       <c r="D59" s="4"/>
       <c r="E59" s="9"/>
@@ -1433,24 +1482,24 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data files/Purchase Order/smith medical.xlsx
+++ b/data files/Purchase Order/smith medical.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28227"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0285BDF-DCE5-496D-B8A2-B501DDEF5994}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A82C3BD-9E53-458A-A7BC-227B1C364CD1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2688" yWindow="2688" windowWidth="17304" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1995" yWindow="2760" windowWidth="15375" windowHeight="7785" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="MASTER" sheetId="1" r:id="rId1"/>
@@ -304,7 +304,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="45">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -387,18 +387,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="1" fontId="5" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="1" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="1" fontId="1" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -718,22 +706,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H59"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+    <sheetView tabSelected="1" topLeftCell="A40" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+      <selection activeCell="A47" sqref="A47:XFD47"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="6.5546875" customWidth="1"/>
-    <col min="2" max="2" width="51.109375" customWidth="1"/>
-    <col min="3" max="3" width="15.44140625" customWidth="1"/>
-    <col min="4" max="4" width="8.44140625" customWidth="1"/>
-    <col min="5" max="5" width="10.44140625" style="20" customWidth="1"/>
-    <col min="6" max="6" width="5.6640625" customWidth="1"/>
+    <col min="1" max="1" width="6.5703125" customWidth="1"/>
+    <col min="2" max="2" width="51.140625" customWidth="1"/>
+    <col min="3" max="3" width="15.42578125" customWidth="1"/>
+    <col min="4" max="4" width="8.42578125" customWidth="1"/>
+    <col min="5" max="5" width="10.42578125" style="20" customWidth="1"/>
+    <col min="6" max="6" width="5.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A1" s="41" t="s">
+    <row r="1" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1" s="37" t="s">
         <v>38</v>
       </c>
       <c r="B1" s="1"/>
@@ -741,14 +729,14 @@
       <c r="D1" s="1"/>
       <c r="E1" s="16"/>
     </row>
-    <row r="2" spans="1:7" ht="18" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A2" s="1"/>
       <c r="B2" s="1"/>
       <c r="C2" s="2"/>
       <c r="D2" s="1"/>
       <c r="E2" s="17"/>
     </row>
-    <row r="3" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>0</v>
       </c>
@@ -757,7 +745,7 @@
       <c r="D3" s="4"/>
       <c r="E3" s="7"/>
     </row>
-    <row r="4" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
         <v>20</v>
       </c>
@@ -766,7 +754,7 @@
       <c r="D4" s="4"/>
       <c r="E4" s="7"/>
     </row>
-    <row r="5" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
         <v>21</v>
       </c>
@@ -775,14 +763,14 @@
       <c r="D5" s="4"/>
       <c r="E5" s="7"/>
     </row>
-    <row r="6" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6" s="4"/>
       <c r="B6" s="4"/>
       <c r="C6" s="4"/>
       <c r="D6" s="4"/>
       <c r="E6" s="7"/>
     </row>
-    <row r="7" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
         <v>1</v>
       </c>
@@ -791,7 +779,7 @@
       <c r="D7" s="4"/>
       <c r="E7" s="18"/>
     </row>
-    <row r="8" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
         <v>2</v>
       </c>
@@ -800,7 +788,7 @@
       <c r="D8" s="4"/>
       <c r="E8" s="19"/>
     </row>
-    <row r="9" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A9" s="21"/>
       <c r="B9" s="21"/>
       <c r="C9" s="22"/>
@@ -808,28 +796,28 @@
       <c r="E9" s="23"/>
       <c r="F9" s="24"/>
     </row>
-    <row r="10" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="42" t="s">
+    <row r="10" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="38" t="s">
         <v>39</v>
       </c>
-      <c r="B10" s="43" t="s">
+      <c r="B10" s="39" t="s">
         <v>40</v>
       </c>
-      <c r="C10" s="44" t="s">
+      <c r="C10" s="40" t="s">
         <v>3</v>
       </c>
-      <c r="D10" s="43" t="s">
+      <c r="D10" s="39" t="s">
         <v>4</v>
       </c>
-      <c r="E10" s="43" t="s">
+      <c r="E10" s="39" t="s">
         <v>42</v>
       </c>
-      <c r="F10" s="44" t="s">
+      <c r="F10" s="40" t="s">
         <v>41</v>
       </c>
-      <c r="G10" s="44"/>
-    </row>
-    <row r="11" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="G10" s="40"/>
+    </row>
+    <row r="11" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A11" s="25">
         <v>1</v>
       </c>
@@ -847,7 +835,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A12" s="25">
         <v>2</v>
       </c>
@@ -865,7 +853,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A13" s="25">
         <v>3</v>
       </c>
@@ -883,7 +871,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A14" s="25">
         <v>4</v>
       </c>
@@ -901,7 +889,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A15" s="25">
         <v>5</v>
       </c>
@@ -919,7 +907,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A16" s="25">
         <v>6</v>
       </c>
@@ -937,7 +925,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="17" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A17" s="25">
         <v>7</v>
       </c>
@@ -955,7 +943,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="18" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A18" s="25">
         <v>8</v>
       </c>
@@ -973,7 +961,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="19" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A19" s="25"/>
       <c r="B19" s="26"/>
       <c r="C19" s="27"/>
@@ -981,7 +969,7 @@
       <c r="E19" s="29"/>
       <c r="F19" s="30"/>
     </row>
-    <row r="20" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A20" s="25">
         <v>9</v>
       </c>
@@ -999,7 +987,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="21" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A21" s="25">
         <v>10</v>
       </c>
@@ -1017,7 +1005,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="22" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A22" s="25">
         <v>11</v>
       </c>
@@ -1035,7 +1023,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="23" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A23" s="25">
         <v>12</v>
       </c>
@@ -1055,7 +1043,7 @@
       <c r="G23" s="9"/>
       <c r="H23" s="8"/>
     </row>
-    <row r="24" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A24" s="25">
         <v>13</v>
       </c>
@@ -1075,7 +1063,7 @@
       <c r="G24" s="9"/>
       <c r="H24" s="8"/>
     </row>
-    <row r="25" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A25" s="25"/>
       <c r="B25" s="26"/>
       <c r="C25" s="27"/>
@@ -1085,7 +1073,7 @@
       <c r="G25" s="9"/>
       <c r="H25" s="8"/>
     </row>
-    <row r="26" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A26" s="25">
         <v>14</v>
       </c>
@@ -1103,7 +1091,7 @@
       <c r="G26" s="9"/>
       <c r="H26" s="8"/>
     </row>
-    <row r="27" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A27" s="25">
         <v>15</v>
       </c>
@@ -1121,7 +1109,7 @@
       <c r="G27" s="9"/>
       <c r="H27" s="8"/>
     </row>
-    <row r="28" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A28" s="25">
         <v>16</v>
       </c>
@@ -1139,7 +1127,7 @@
       <c r="G28" s="9"/>
       <c r="H28" s="8"/>
     </row>
-    <row r="29" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A29" s="25">
         <v>17</v>
       </c>
@@ -1157,7 +1145,7 @@
       <c r="G29" s="9"/>
       <c r="H29" s="8"/>
     </row>
-    <row r="30" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A30" s="25">
         <v>18</v>
       </c>
@@ -1171,7 +1159,7 @@
       <c r="G30" s="9"/>
       <c r="H30" s="8"/>
     </row>
-    <row r="31" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A31" s="25"/>
       <c r="B31" s="26" t="s">
         <v>28</v>
@@ -1187,7 +1175,7 @@
       <c r="G31" s="9"/>
       <c r="H31" s="8"/>
     </row>
-    <row r="32" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A32" s="25"/>
       <c r="B32" s="26"/>
       <c r="C32" s="32"/>
@@ -1197,7 +1185,7 @@
       <c r="G32" s="9"/>
       <c r="H32" s="8"/>
     </row>
-    <row r="33" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A33" s="25">
         <v>19</v>
       </c>
@@ -1217,7 +1205,7 @@
       <c r="G33" s="9"/>
       <c r="H33" s="8"/>
     </row>
-    <row r="34" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A34" s="25">
         <v>20</v>
       </c>
@@ -1236,7 +1224,7 @@
       </c>
       <c r="G34" s="9"/>
     </row>
-    <row r="35" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A35" s="25">
         <v>21</v>
       </c>
@@ -1256,7 +1244,7 @@
       <c r="G35" s="9"/>
       <c r="H35" s="8"/>
     </row>
-    <row r="36" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A36" s="25">
         <v>22</v>
       </c>
@@ -1272,7 +1260,7 @@
       <c r="G36" s="9"/>
       <c r="H36" s="8"/>
     </row>
-    <row r="37" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A37" s="25"/>
       <c r="B37" s="26"/>
       <c r="C37" s="27"/>
@@ -1282,7 +1270,7 @@
       <c r="G37" s="9"/>
       <c r="H37" s="8"/>
     </row>
-    <row r="38" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A38" s="34">
         <v>23</v>
       </c>
@@ -1300,7 +1288,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="39" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A39" s="34">
         <v>24</v>
       </c>
@@ -1318,7 +1306,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="40" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A40" s="34">
         <v>25</v>
       </c>
@@ -1336,7 +1324,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="41" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A41" s="34">
         <v>26</v>
       </c>
@@ -1346,7 +1334,7 @@
       <c r="C41" s="27" t="s">
         <v>32</v>
       </c>
-      <c r="D41" s="40" t="s">
+      <c r="D41" s="36" t="s">
         <v>37</v>
       </c>
       <c r="E41" s="29"/>
@@ -1354,13 +1342,13 @@
         <v>7</v>
       </c>
     </row>
-    <row r="42" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A42" s="6"/>
       <c r="B42" s="8"/>
       <c r="C42" s="11"/>
       <c r="E42" s="29"/>
     </row>
-    <row r="43" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A43" s="34">
         <v>26</v>
       </c>
@@ -1378,7 +1366,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="44" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A44" s="34">
         <v>27</v>
       </c>
@@ -1396,7 +1384,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="45" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A45" s="34">
         <v>28</v>
       </c>
@@ -1414,7 +1402,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="46" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A46" s="34">
         <v>29</v>
       </c>
@@ -1432,15 +1420,15 @@
         <v>7</v>
       </c>
     </row>
-    <row r="47" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A47" s="7"/>
+    <row r="47" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A47" s="34"/>
       <c r="B47" s="8"/>
-      <c r="C47" s="36"/>
-      <c r="D47" s="38"/>
-      <c r="E47" s="39"/>
-      <c r="F47" s="37"/>
-    </row>
-    <row r="48" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="C47" s="27"/>
+      <c r="D47" s="28"/>
+      <c r="E47" s="29"/>
+      <c r="F47" s="33"/>
+    </row>
+    <row r="48" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A48" s="8" t="s">
         <v>16</v>
       </c>
@@ -1449,28 +1437,28 @@
       <c r="D48" s="6"/>
       <c r="E48" s="9"/>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A49" s="13"/>
     </row>
-    <row r="55" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="D55" s="12"/>
       <c r="E55" s="9"/>
     </row>
-    <row r="56" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="D56" s="14"/>
       <c r="E56" s="9"/>
     </row>
-    <row r="57" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C57" s="15"/>
       <c r="D57" s="14"/>
       <c r="E57" s="9"/>
     </row>
-    <row r="58" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C58" s="15"/>
       <c r="D58" s="14"/>
       <c r="E58" s="9"/>
     </row>
-    <row r="59" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C59" s="4"/>
       <c r="D59" s="4"/>
       <c r="E59" s="9"/>
@@ -1487,7 +1475,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1499,7 +1487,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
